--- a/Datasets/Public_Recycling_Bins.xlsx
+++ b/Datasets/Public_Recycling_Bins.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="1160" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="400" yWindow="1020" windowWidth="28160" windowHeight="16880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="754">
   <si>
     <t>Borough</t>
   </si>
@@ -2289,23 +2289,36 @@
     <t>Wolfe's Pond</t>
   </si>
   <si>
-    <t>Rijlabels</t>
-  </si>
-  <si>
     <t>Eindtotaal</t>
   </si>
   <si>
-    <t>Aantal van Borough</t>
+    <t>Aantal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2328,8 +2341,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2340,7 +2357,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2487,11 +2508,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-386366768"/>
-        <c:axId val="-386270320"/>
+        <c:axId val="146753536"/>
+        <c:axId val="146755168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-386366768"/>
+        <c:axId val="146753536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,7 +2555,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-386270320"/>
+        <c:crossAx val="146755168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2542,7 +2563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-386270320"/>
+        <c:axId val="146755168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2613,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-386366768"/>
+        <c:crossAx val="146753536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3196,10 +3217,10 @@
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7627,7 +7648,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Draaitabel4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Draaitabel4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Borough">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -7677,7 +7698,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Aantal van Borough" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Aantal" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7953,22 +7974,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8021,7 +8042,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B10" s="4">
         <v>545</v>
@@ -8037,8 +8058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F546"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A524" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
